--- a/mAjustesInventario/bak_ALL31.xlsx
+++ b/mAjustesInventario/bak_ALL31.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Acosta\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BF63464-7EED-498B-8CD4-3CE7A32F08D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68811152-7A9A-4D1E-951B-6828B9047A39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FB5836B9-E373-4CC8-A53F-5CE75D6B622E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BA8A7347-5799-4D19-B914-5F1D3D514E9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,108 +34,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>1104</t>
-  </si>
-  <si>
-    <t>0533</t>
-  </si>
-  <si>
-    <t>8719200450516</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>0709</t>
   </si>
   <si>
-    <t>7501199410913</t>
-  </si>
-  <si>
-    <t>7501032925956</t>
-  </si>
-  <si>
-    <t>0488</t>
-  </si>
-  <si>
-    <t>7501025423827</t>
-  </si>
-  <si>
-    <t>7501130902194</t>
-  </si>
-  <si>
-    <t>7802800719433</t>
+    <t>334</t>
+  </si>
+  <si>
+    <t>7501020555486</t>
+  </si>
+  <si>
+    <t>7500462378134</t>
+  </si>
+  <si>
+    <t>7500462378172</t>
+  </si>
+  <si>
+    <t>7501003124807</t>
+  </si>
+  <si>
+    <t>7501147513284</t>
+  </si>
+  <si>
+    <t>826101509623</t>
+  </si>
+  <si>
+    <t>2051</t>
+  </si>
+  <si>
+    <t>036731322005</t>
+  </si>
+  <si>
+    <t>7501003123411</t>
+  </si>
+  <si>
+    <t>7501020538212</t>
+  </si>
+  <si>
+    <t>7501065628145</t>
+  </si>
+  <si>
+    <t>7503026264232</t>
+  </si>
+  <si>
+    <t>7506306213487</t>
+  </si>
+  <si>
+    <t>0576</t>
   </si>
   <si>
     <t>0708</t>
   </si>
   <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>105519</t>
-  </si>
-  <si>
-    <t>75000608</t>
-  </si>
-  <si>
-    <t>7501071305153</t>
-  </si>
-  <si>
-    <t>7501125104688</t>
-  </si>
-  <si>
-    <t>7501204001006</t>
-  </si>
-  <si>
-    <t>7503005933395</t>
-  </si>
-  <si>
-    <t>8719200450400</t>
-  </si>
-  <si>
-    <t>980144</t>
-  </si>
-  <si>
-    <t>0700083918000</t>
-  </si>
-  <si>
-    <t>0781718678902</t>
-  </si>
-  <si>
-    <t>7501017042920</t>
-  </si>
-  <si>
-    <t>7501025403355</t>
-  </si>
-  <si>
-    <t>7501030467298</t>
-  </si>
-  <si>
-    <t>7501052424606</t>
-  </si>
-  <si>
-    <t>7501204010107</t>
-  </si>
-  <si>
-    <t>7501480900048</t>
-  </si>
-  <si>
-    <t>7502005517031</t>
-  </si>
-  <si>
-    <t>7503020707018</t>
-  </si>
-  <si>
-    <t>7503020707148</t>
-  </si>
-  <si>
-    <t>8719200450530</t>
-  </si>
-  <si>
-    <t>K0196</t>
-  </si>
-  <si>
-    <t>0581</t>
+    <t>0095</t>
+  </si>
+  <si>
+    <t>1103</t>
   </si>
 </sst>
 </file>
@@ -486,8 +442,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0EDF34-0488-4C6A-A1B2-1722D2B69211}">
-  <dimension ref="A1:B34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3E5EB7-A367-4C07-BEE5-341B7B8BA3FA}">
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -500,7 +456,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -508,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -516,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -524,7 +480,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -532,7 +488,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -540,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -548,7 +504,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -556,7 +512,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -572,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -580,7 +536,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -588,7 +544,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -596,7 +552,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -604,7 +560,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -612,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -645,126 +601,6 @@
       </c>
       <c r="B19">
         <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
